--- a/biology/Zoologie/Antedon/Antedon.xlsx
+++ b/biology/Zoologie/Antedon/Antedon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antedon est un genre de comatules de la famille des Antedonidae.
-Les études génétiques suggèrent que ce genre serait largement paraphylétique (avec au moins un groupe cohérent atlanto-méditerranéen et plusieurs autres), mais aucune révision d'ampleur n'a encore été entreprise[1]. 
+Les études génétiques suggèrent que ce genre serait largement paraphylétique (avec au moins un groupe cohérent atlanto-méditerranéen et plusieurs autres), mais aucune révision d'ampleur n'a encore été entreprise. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (30 janvier 2024)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (30 janvier 2024) :
 Antedon arabica (AH Clark, 1937) -- Océan indien occidental (d'Oman à Madagascar, faible profondeur)
 Antedon bifida (Pennant, 1777) -- Atlantique nord tempéré, notamment européen (10-100 m)
 Antedon detonna McKnight, 1977 -- Île Norfolk
@@ -528,9 +542,43 @@
 Antedon nuttingi (AH Clark, 1936) -- Caraïbes (364-429 m)
 Antedon parviflora (AH Clark, 1912) -- Région indonésienne, jusqu'au Japon et peut-être Maldives (10-275 m)
 Antedon petasus (Düben &amp; Koren, 1846) -- Atlantique nord-est et peut-être Méditerranée profonde (10-450 m)
-Antedon serrata AH Clark, 1908 -- Mer Jaune et Mer de Chine (0-180 m)
-Espèces synonymes, obsolètes ou déplacées[3]
-Antedon adriatica A.H. Clark, 1911 — Antedon mediterranea
+Antedon serrata AH Clark, 1908 -- Mer Jaune et Mer de Chine (0-180 m)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Antedon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antedon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces synonymes, obsolètes ou déplacées[3]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antedon adriatica A.H. Clark, 1911 — Antedon mediterranea
 Antedon columnaris Carpenter, 1881 — Zenometra columnaris (Carpenter, 1881)
 Antedon cubensis Pourtalès, 1869 — Trichometra cubensis (Pourtalès, 1869)
 Antedon duebeni Böhlsche, 1866 — Antedon bifida
@@ -552,39 +600,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Antedon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antedon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Antedon de Fréminville, 1811[2],[4]. Son espèce type est Antedon gorgonia de Fréminville, 1811 acceptée comme Antedon bifida (Pennant, 1777), en raison de l'antériorité[2].
-Antedon a pour synonymes[2] :
-Compsometra AH Clark, 1908
-Repometra AH Clark, 1937</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -606,10 +621,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Antedon de Fréminville, 1811,. Son espèce type est Antedon gorgonia de Fréminville, 1811 acceptée comme Antedon bifida (Pennant, 1777), en raison de l'antériorité.
+Antedon a pour synonymes :
+Compsometra AH Clark, 1908
+Repometra AH Clark, 1937</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antedon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antedon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>de Fréminville, « Mémoire sur un nouveau genre de Zoophytes de l'ordre des Radiaires », Nouveau Bulletin des sciences, vol. 2, no 49,‎ 1811, p. 349–350 (BNF 32825559, lire en ligne)</t>
         </is>
